--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\safemaker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2595" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
@@ -22,6 +17,7 @@
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -843,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,7 +4104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="5850" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
     <sheet name="SAQ type A-EP" sheetId="11" r:id="rId2"/>
-    <sheet name="SAQ B" sheetId="12" r:id="rId3"/>
-    <sheet name="SAQ B-IP" sheetId="13" r:id="rId4"/>
+    <sheet name="SAQ type B" sheetId="12" r:id="rId3"/>
+    <sheet name="SAQ type B-IP" sheetId="13" r:id="rId4"/>
     <sheet name="SAQ-CVT" sheetId="14" r:id="rId5"/>
     <sheet name="SAQ type C" sheetId="5" r:id="rId6"/>
     <sheet name="SAQ type D" sheetId="6" r:id="rId7"/>
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E1"/>
+  <oleSize ref="A7:G23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="144">
   <si>
     <t>Scenario</t>
   </si>
@@ -222,12 +222,6 @@
   </si>
   <si>
     <t>Scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hasScanRequirementInfo:INFO
-hasScanRequirement:yes
-hasScanRequirement:no
-</t>
   </si>
   <si>
     <t>existingData0:check</t>
@@ -247,9 +241,6 @@
     <t>pacF2f:check</t>
   </si>
   <si>
-    <t>websiteDevelopment0:check</t>
-  </si>
-  <si>
     <t>paymentProvider_list:INFO</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
   </si>
   <si>
     <t>shoppingCart:INFO</t>
-  </si>
-  <si>
-    <t>securityPolicy0:check</t>
   </si>
   <si>
     <t>otherAcquirerRelationship:no</t>
@@ -288,12 +276,6 @@
 ecommSetup_method_other:yes</t>
   </si>
   <si>
-    <t>ecommSetup_channel1:check</t>
-  </si>
-  <si>
-    <t>ecommSetup_channel_softwareSetup1:check</t>
-  </si>
-  <si>
     <t>sadReceived:no</t>
   </si>
   <si>
@@ -308,9 +290,6 @@
 mobileMerchantSetup_vt:no</t>
   </si>
   <si>
-    <t>mobileMerchantOnly:check</t>
-  </si>
-  <si>
     <t>securityPolicySaqC0:check</t>
   </si>
   <si>
@@ -336,14 +315,6 @@
   </si>
   <si>
     <t>physicalCardDataUsed:no</t>
-  </si>
-  <si>
-    <t>ecommTxnsAppSetupCart:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-pspCompliance:no
-pspDontPassBackData:no</t>
   </si>
   <si>
     <t>dataCompromise:no</t>
@@ -371,9 +342,6 @@
     <t>virtualTerminalProvider:INFO</t>
   </si>
   <si>
-    <t>securityPolicyNotInPlace:check</t>
-  </si>
-  <si>
     <t>telephonePosUsed:check</t>
   </si>
   <si>
@@ -438,10 +406,6 @@
   <si>
     <t xml:space="preserve">
 motoSetupMethodPhone1:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-existingData0:check</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -507,6 +471,31 @@
   <si>
     <t>otherUse:no
 emailCardData:no</t>
+  </si>
+  <si>
+    <t>existingData:yes</t>
+  </si>
+  <si>
+    <t>websiteDevelopment:yes</t>
+  </si>
+  <si>
+    <t>securityPolicy:yes</t>
+  </si>
+  <si>
+    <t>mobileMerchantOnly:yes</t>
+  </si>
+  <si>
+    <t>securityPolicySaqC:yes</t>
+  </si>
+  <si>
+    <t>ecommSetup_channel:no</t>
+  </si>
+  <si>
+    <t>ecommSetup_channel_softwareSetup:no</t>
+  </si>
+  <si>
+    <t>pspCompliance:no
+pspDontPassBackData:no</t>
   </si>
 </sst>
 </file>
@@ -837,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,18 +889,19 @@
     <col min="54" max="54" width="30.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="55" max="55" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="56" max="56" width="38.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="36.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="43.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="75" width="7.42578125" style="1" collapsed="1"/>
-    <col min="76" max="16384" width="7.42578125" style="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="36.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="43.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="37.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="76" width="7.42578125" style="1" collapsed="1"/>
+    <col min="77" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,120 +1070,129 @@
       <c r="BD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BI2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="3" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1203,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD15"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,28 +1266,28 @@
     <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
     <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
     <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="49" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,64 +1456,67 @@
       <c r="BD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1551,69 +1553,72 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
+      <c r="BE2" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="3" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1649,34 +1654,37 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
+      <c r="BE3" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="BF3" s="1"/>
-      <c r="BG3" s="1" t="s">
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BL4"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BC4" sqref="A4:XFD27"/>
+    <sheetView topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BE3" sqref="BE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,18 +1757,18 @@
     <col min="54" max="54" width="30.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="55" max="55" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="56" max="56" width="38.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="36.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="43.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="75" width="7.42578125" style="1" collapsed="1"/>
-    <col min="76" max="16384" width="7.42578125" style="1"/>
+    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="36.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="31.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="43.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="37.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1929,55 +1937,43 @@
       <c r="BD1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1989,100 +1985,69 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="2"/>
+        <v>99</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
+        <v>97</v>
+      </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC2" s="2"/>
-      <c r="BD2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE2" s="2"/>
+      <c r="BD2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="BF2" s="2"/>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="3" spans="1:63" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+        <v>104</v>
+      </c>
       <c r="O3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2090,63 +2055,48 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC3" s="2"/>
+        <v>99</v>
+      </c>
       <c r="AD3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
+        <v>97</v>
+      </c>
       <c r="AW3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE3" s="2"/>
+      <c r="BD3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="2" t="s">
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>79</v>
-      </c>
     </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2157,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BE1" sqref="A1:BL3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2439,20 +2389,20 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>129</v>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2471,14 +2421,14 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -2498,7 +2448,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -2506,43 +2456,43 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2553,38 +2503,38 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -2604,41 +2554,41 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2650,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BD4" sqref="BD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2932,14 +2882,14 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2962,7 +2912,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2983,55 +2933,55 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -3042,29 +2992,29 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -3085,43 +3035,43 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3131,10 +3081,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BI8" sqref="BI8"/>
+    <sheetView topLeftCell="AY2" workbookViewId="0">
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,17 +3153,6 @@
     <col min="62" max="62" width="25.5703125" customWidth="1" collapsed="1"/>
     <col min="63" max="63" width="36.28515625" customWidth="1" collapsed="1"/>
     <col min="64" max="64" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
@@ -3386,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3415,93 +3354,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>136</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+        <v>69</v>
+      </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+        <v>82</v>
+      </c>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" s="1"/>
+        <v>139</v>
+      </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC2" s="1"/>
+        <v>78</v>
+      </c>
       <c r="BD2" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG2" s="1"/>
+        <v>85</v>
+      </c>
       <c r="BH2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,105 +3405,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>136</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+        <v>69</v>
+      </c>
       <c r="AA3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
       <c r="BB3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC3" s="1"/>
+        <v>78</v>
+      </c>
       <c r="BD3" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG3" s="1"/>
+        <v>85</v>
+      </c>
       <c r="BH3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3619,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,7 +3483,7 @@
     <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="37" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="37" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="25.140625" customWidth="1" collapsed="1"/>
@@ -3873,7 +3722,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3902,36 +3751,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -3968,38 +3817,38 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -4007,12 +3856,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4035,14 +3884,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -4060,11 +3909,11 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -4072,27 +3921,27 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4104,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4357,7 +4206,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -4386,13 +4235,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4415,19 +4264,19 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -4446,35 +4295,35 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -4482,15 +4331,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4501,41 +4350,41 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -4553,34 +4402,34 @@
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="5850" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="3420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:G23"/>
+  <oleSize ref="BD1:BF12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -348,9 +348,6 @@
     <t>standalonePosUsed:check</t>
   </si>
   <si>
-    <t>motoSetupMethodPhoneAvr1.no</t>
-  </si>
-  <si>
     <t>motoOutsourced:no</t>
   </si>
   <si>
@@ -402,10 +399,6 @@
   </si>
   <si>
     <t>internetConnected:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-motoSetupMethodPhone1:check</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -496,6 +489,12 @@
   <si>
     <t>pspCompliance:no
 pspDontPassBackData:no</t>
+  </si>
+  <si>
+    <t>motoSetupMethodPhone:no</t>
+  </si>
+  <si>
+    <t>motoSetupMethodPhoneAvr.no</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1100,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>66</v>
@@ -1112,7 +1111,7 @@
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>70</v>
@@ -1127,10 +1126,10 @@
         <v>78</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>73</v>
@@ -1150,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>66</v>
@@ -1162,7 +1161,7 @@
         <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>70</v>
@@ -1177,10 +1176,10 @@
         <v>78</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>73</v>
@@ -1457,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1486,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1501,13 +1500,13 @@
         <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>70</v>
@@ -1565,7 +1564,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1588,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1603,13 +1602,13 @@
         <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>70</v>
@@ -1669,7 +1668,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1696,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL4"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BE3" sqref="BE3"/>
+    <sheetView tabSelected="1" topLeftCell="S4" workbookViewId="0">
+      <selection activeCell="S4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1720,8 @@
     <col min="17" max="17" width="34.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="33.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="43" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="20.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="26.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1938,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -1967,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -2003,10 +2002,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2029,25 +2028,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2075,10 +2074,10 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2096,7 +2095,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BE4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2361,7 +2362,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2390,19 +2391,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2424,7 +2425,7 @@
         <v>100</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
@@ -2448,7 +2449,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -2463,16 +2464,16 @@
         <v>84</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>75</v>
@@ -2486,13 +2487,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2503,34 +2504,34 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
@@ -2554,7 +2555,7 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>80</v>
@@ -2567,13 +2568,13 @@
         <v>78</v>
       </c>
       <c r="BC3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BD3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="BE3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2582,7 +2583,7 @@
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BK3" s="2" t="s">
         <v>75</v>
@@ -2854,7 +2855,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2883,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2912,7 +2913,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2952,7 +2953,7 @@
         <v>84</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2975,13 +2976,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2992,29 +2993,29 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -3056,7 +3057,7 @@
         <v>84</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -3325,7 +3326,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3354,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
@@ -3370,7 +3371,7 @@
         <v>83</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
@@ -3379,10 +3380,10 @@
         <v>78</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>85</v>
@@ -3405,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>69</v>
@@ -3438,10 +3439,10 @@
         <v>78</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>85</v>
@@ -3722,7 +3723,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3751,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3765,19 +3766,19 @@
         <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>72</v>
@@ -3831,7 +3832,7 @@
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
@@ -3856,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3926,7 +3927,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -3953,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,7 +4207,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -4241,7 +4242,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4270,13 +4271,13 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -4301,14 +4302,14 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -4317,7 +4318,7 @@
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BK2" s="2" t="s">
         <v>75</v>
@@ -4334,12 +4335,12 @@
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4350,41 +4351,41 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -4411,12 +4412,12 @@
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="3420" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="4860" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
     <sheet name="SAQ type A-EP" sheetId="11" r:id="rId2"/>
     <sheet name="SAQ type B" sheetId="12" r:id="rId3"/>
     <sheet name="SAQ type B-IP" sheetId="13" r:id="rId4"/>
-    <sheet name="SAQ-CVT" sheetId="14" r:id="rId5"/>
+    <sheet name="SAQ type C-vt" sheetId="14" r:id="rId5"/>
     <sheet name="SAQ type C" sheetId="5" r:id="rId6"/>
     <sheet name="SAQ type D" sheetId="6" r:id="rId7"/>
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="BD1:BF12"/>
+  <oleSize ref="A1:G3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="125">
   <si>
     <t>Scenario</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>Scope</t>
-  </si>
-  <si>
-    <t>existingData0:check</t>
   </si>
   <si>
     <t>pacEcomm:check</t>
@@ -290,9 +287,6 @@
 mobileMerchantSetup_vt:no</t>
   </si>
   <si>
-    <t>securityPolicySaqC0:check</t>
-  </si>
-  <si>
     <t>wirelessNetworksUsed:no</t>
   </si>
   <si>
@@ -300,12 +294,6 @@
   </si>
   <si>
     <t>p2peSolutionInUse:no</t>
-  </si>
-  <si>
-    <t>paymentApplication0:check</t>
-  </si>
-  <si>
-    <t>paDssCertified0:check</t>
   </si>
   <si>
     <t>pciSscValidatedPaymentApplications_list:INFO</t>
@@ -361,13 +349,7 @@
 </t>
   </si>
   <si>
-    <t>securityPolicySaqC1:check</t>
-  </si>
-  <si>
     <t>chdAgentAccess:no</t>
-  </si>
-  <si>
-    <t>motoSetupMethodPhone0:check</t>
   </si>
   <si>
     <t>ipTerminalUsed:check</t>
@@ -389,77 +371,10 @@
 p2peHwSolutions_list:INFO</t>
   </si>
   <si>
-    <t>isa_has1:no</t>
-  </si>
-  <si>
-    <t>securityPolicy0:no</t>
-  </si>
-  <si>
     <t>internetConnected</t>
   </si>
   <si>
     <t>internetConnected:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-pacF2f:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-remoteAccessToPos:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-otherAcquirerRelationship:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-isa_has:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-pacMoto:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-motoPhone:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-motoOutsourced1:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-motoCallRecording:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-chdInCrm:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-standalonePosUsed:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ipTerminalUsed:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-virtualTerminalUsed:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-p2peSolutionInUse:yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-emailCardData:no
-otherUse:no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-motoOutsourced:no</t>
   </si>
   <si>
     <t>otherUse:no
@@ -494,7 +409,19 @@
     <t>motoSetupMethodPhone:no</t>
   </si>
   <si>
-    <t>motoSetupMethodPhoneAvr.no</t>
+    <t>motoSetupMethodPhoneAvr:no</t>
+  </si>
+  <si>
+    <t>paymentApplication:yes</t>
+  </si>
+  <si>
+    <t>paDssCertified:yes</t>
+  </si>
+  <si>
+    <t>motoSetupMethodPhone:yes</t>
+  </si>
+  <si>
+    <t>p2peSolutionInUse:yes</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1099,49 +1026,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -1149,49 +1076,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1213,7 @@
     <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1383,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1480,42 +1407,42 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1552,72 +1479,72 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="3" spans="1:76" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1653,37 +1580,37 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1693,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL4"/>
+  <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S4" workbookViewId="0">
-      <selection activeCell="S4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="BD4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -1966,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -1984,13 +1911,13 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -1998,29 +1925,29 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -2028,25 +1955,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2054,49 +1981,46 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BL3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="BE4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,14 +2057,14 @@
     <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.28515625" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="26.85546875" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
@@ -2362,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2391,20 +2315,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2422,14 +2344,14 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -2449,7 +2371,7 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -2457,29 +2379,29 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="BK2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -2487,55 +2409,54 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -2555,41 +2476,38 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="BK3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2601,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,18 +2540,18 @@
     <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28.42578125" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
@@ -2855,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2884,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2913,7 +2831,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2934,41 +2852,41 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -2976,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2993,29 +2911,30 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="U3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="V3" s="2"/>
+        <v>105</v>
+      </c>
       <c r="W3" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -3036,43 +2955,43 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3084,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView topLeftCell="AY2" workbookViewId="0">
-      <selection activeCell="BD3" sqref="BD3"/>
+    <sheetView topLeftCell="BC2" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3245,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3355,50 +3274,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BH2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3406,58 +3325,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="BB3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="BH3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3469,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="AY2" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3752,36 +3671,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -3818,38 +3737,38 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -3857,12 +3776,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3885,14 +3804,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -3910,11 +3829,11 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
@@ -3922,27 +3841,27 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
       <c r="BH3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3954,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,13 +3893,13 @@
     <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.140625" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
@@ -4207,7 +4126,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -4236,13 +4155,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4265,19 +4184,19 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -4296,35 +4215,35 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
       <c r="BH2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="BK2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
@@ -4332,15 +4251,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4351,41 +4270,42 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA3" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -4403,34 +4323,38 @@
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
+      <c r="BD3" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="BE3" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
+      <c r="BH3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="4860" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2685" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G3"/>
+  <oleSize ref="BC2:BF14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -299,9 +299,6 @@
     <t>pciSscValidatedPaymentApplications_list:INFO</t>
   </si>
   <si>
-    <t>batchSettlementFilesUsed:yes</t>
-  </si>
-  <si>
     <t>physicalCardDataUsed:no</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>p2peSolutionInUse:yes</t>
+  </si>
+  <si>
+    <t>batchSettlementFilesUsed:no</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>65</v>
@@ -1038,7 +1038,7 @@
         <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
@@ -1053,10 +1053,10 @@
         <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>72</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>65</v>
@@ -1088,7 +1088,7 @@
         <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>69</v>
@@ -1103,10 +1103,10 @@
         <v>77</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>72</v>
@@ -1383,7 +1383,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1427,13 +1427,13 @@
         <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
@@ -1491,7 +1491,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1514,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1529,13 +1529,13 @@
         <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>69</v>
@@ -1595,7 +1595,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1864,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>68</v>
@@ -1911,13 +1911,13 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
@@ -1929,10 +1929,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -1955,25 +1955,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1981,13 +1981,13 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>79</v>
@@ -2001,10 +2001,10 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2286,7 +2286,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2344,14 +2344,14 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -2383,10 +2383,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2409,13 +2409,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2425,38 +2425,38 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -2489,10 +2489,10 @@
         <v>77</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2519,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2831,7 +2831,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2852,13 +2852,13 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
@@ -2868,10 +2868,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2894,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2911,30 +2911,30 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2955,7 +2955,7 @@
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
@@ -2963,7 +2963,7 @@
         <v>79</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -2973,10 +2973,10 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -3003,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView topLeftCell="BC2" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2"/>
+    <sheetView tabSelected="1" topLeftCell="BE2" workbookViewId="0">
+      <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,7 +3245,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>68</v>
@@ -3290,7 +3290,7 @@
         <v>82</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
@@ -3299,10 +3299,10 @@
         <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>83</v>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>68</v>
@@ -3337,31 +3337,31 @@
         <v>85</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>83</v>
@@ -3642,7 +3642,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3685,19 +3685,19 @@
         <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>71</v>
@@ -3747,15 +3747,15 @@
         <v>77</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>72</v>
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3804,14 +3804,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1" t="s">
@@ -3846,7 +3846,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -4126,7 +4126,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4190,13 +4190,13 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -4215,7 +4215,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
@@ -4225,10 +4225,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -4251,15 +4251,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -4270,27 +4270,27 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>84</v>
@@ -4299,13 +4299,13 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -4326,20 +4326,20 @@
         <v>79</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2685" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2625" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="BC2:BF14"/>
+  <oleSize ref="AW1:AZ2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="124">
   <si>
     <t>Scenario</t>
   </si>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>pacMoto:check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>chdAgentAccess:no</t>
@@ -997,7 +993,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1026,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>65</v>
@@ -1038,7 +1034,7 @@
         <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
@@ -1053,10 +1049,10 @@
         <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH2" s="1" t="s">
         <v>72</v>
@@ -1076,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>65</v>
@@ -1088,7 +1084,7 @@
         <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>69</v>
@@ -1103,10 +1099,10 @@
         <v>77</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>72</v>
@@ -1383,7 +1379,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -1412,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1427,13 +1423,13 @@
         <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
@@ -1491,7 +1487,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
@@ -1514,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1529,13 +1525,13 @@
         <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>69</v>
@@ -1595,7 +1591,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1864,7 +1860,7 @@
         <v>32</v>
       </c>
       <c r="BE1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -1893,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>68</v>
@@ -1929,10 +1925,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -1955,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>98</v>
@@ -1970,10 +1966,10 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2001,10 +1997,10 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2286,7 +2282,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2315,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2347,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
@@ -2383,10 +2379,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2409,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2434,25 +2430,25 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
@@ -2489,10 +2485,10 @@
         <v>77</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2773,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -2802,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2831,7 +2827,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -2868,10 +2864,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -2894,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2920,21 +2916,21 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2973,10 +2969,10 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -3003,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE2" workbookViewId="0">
+    <sheetView topLeftCell="BC2" workbookViewId="0">
       <selection activeCell="BF3" sqref="BF3"/>
     </sheetView>
   </sheetViews>
@@ -3245,7 +3241,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3274,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>68</v>
@@ -3290,7 +3286,7 @@
         <v>82</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
@@ -3299,10 +3295,10 @@
         <v>77</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>83</v>
@@ -3325,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>68</v>
@@ -3337,16 +3333,16 @@
         <v>85</v>
       </c>
       <c r="AO3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>80</v>
@@ -3358,10 +3354,10 @@
         <v>77</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>83</v>
@@ -3642,7 +3638,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>60</v>
@@ -3671,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3685,19 +3681,19 @@
         <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>71</v>
@@ -3751,7 +3747,7 @@
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
@@ -3776,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3846,7 +3842,7 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -3873,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4122,7 @@
         <v>32</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>60</v>
@@ -4155,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4190,13 +4186,13 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -4225,10 +4221,10 @@
       </c>
       <c r="BC2" s="2"/>
       <c r="BD2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -4251,11 +4247,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -4279,18 +4273,18 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Z3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>84</v>
@@ -4299,13 +4293,13 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -4332,14 +4326,14 @@
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="2625" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="2775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAQ type A" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="SAQ type P2PE" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="AW1:AZ2"/>
+  <oleSize ref="A1:H2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="127">
   <si>
     <t>Scenario</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>batchSettlementFilesUsed:no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan Required </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1124,323 +1133,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="45" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="49" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="41.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="45" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="41" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="33" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="49" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1474,75 +1489,78 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="1" t="s">
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1" t="s">
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1575,37 +1593,38 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="1" t="s">
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="1" t="s">
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2026,300 +2045,306 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView topLeftCell="X4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="33" customWidth="1"/>
-    <col min="58" max="58" width="49" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="41" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="33" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="33" customWidth="1"/>
+    <col min="59" max="59" width="49" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2339,17 +2364,17 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -2366,95 +2391,98 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="2" t="s">
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -2471,38 +2499,39 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-      <c r="BH3" s="2" t="s">
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2997,381 +3026,391 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView topLeftCell="BC2" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="49" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="41" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="33" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="49" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="39.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AO2" s="1"/>
+      <c r="AF2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="BB2" s="1" t="s">
+      <c r="AW2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="BC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3382,323 +3421,329 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView topLeftCell="AY2" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="29" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="41" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="21" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="33" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="33" customWidth="1"/>
-    <col min="58" max="58" width="49" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="29" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="11" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="41" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="21" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="33" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="33" customWidth="1"/>
+    <col min="59" max="59" width="49" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3732,54 +3777,57 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1" t="s">
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1" t="s">
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3799,17 +3847,17 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -3824,39 +3872,40 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
-      <c r="AT3" s="1" t="s">
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1" t="s">
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="1" t="s">
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
-      <c r="BE3" s="1" t="s">
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="1" t="s">
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1" t="s">
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BL3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3869,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/test/integration/aibms/Profile.xlsx
+++ b/test/integration/aibms/Profile.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="128">
   <si>
     <t>Scenario</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>109</v>
